--- a/RandomCodigos/outros/temp_Resultados.xlsx
+++ b/RandomCodigos/outros/temp_Resultados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,52 +424,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Pes3</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lig3</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Pes6</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Lig6</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Pes5</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Lig5</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pes2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lig2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Pes4</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Lig4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Pes3</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Lig3</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Pes2</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Lig2</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -485,116 +485,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>186</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>133</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
         <v>171</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>41</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -602,265 +602,37 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>66</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>61</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>164</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>24</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>44</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>154</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>155</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>70</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>50</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>158</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>49</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>44</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>157</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>41</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>55</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>34</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>156</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>63</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>42</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
